--- a/regionseng/6/standard of living/incomes.xlsx
+++ b/regionseng/6/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -132,11 +132,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +276,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -323,6 +331,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -337,16 +357,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -660,35 +684,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="11">
         <v>2011</v>
@@ -723,8 +750,14 @@
       <c r="L2" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -758,11 +791,17 @@
       <c r="K3" s="7">
         <v>155.77403236951295</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="7">
         <v>173.26017746888022</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="16">
+        <v>203.36769095833125</v>
+      </c>
+      <c r="N3" s="25">
+        <v>237.13760407945475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -796,11 +835,17 @@
       <c r="K4" s="7">
         <v>137.3956785528668</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="7">
         <v>152.4920849699576</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="16">
+        <v>177.60411946711423</v>
+      </c>
+      <c r="N4" s="25">
+        <v>209.58745587983006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -834,11 +879,17 @@
       <c r="K5" s="8">
         <v>52.045736809478768</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="8">
         <v>55.744719744565323</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="17">
+        <v>67.552268470046997</v>
+      </c>
+      <c r="N5" s="26">
+        <v>80.413239531389877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -872,11 +923,17 @@
       <c r="K6" s="8">
         <v>14.325205364456174</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="8">
         <v>15.060865454635621</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="17">
+        <v>24.916107056655878</v>
+      </c>
+      <c r="N6" s="26">
+        <v>26.414803629544576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -910,11 +967,17 @@
       <c r="K7" s="8">
         <v>6.6338765552735639</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="8">
         <v>7.5030468720856973</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="17">
+        <v>9.1065437582697548</v>
+      </c>
+      <c r="N7" s="26">
+        <v>9.598518489854813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -948,11 +1011,17 @@
       <c r="K8" s="8">
         <v>0.47882979112752277</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="8">
         <v>0.85709981246948241</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="17">
+        <v>0.80711631571451814</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0.52132899169921876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
@@ -986,11 +1055,17 @@
       <c r="K9" s="8">
         <v>36.701823109672546</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="8">
         <v>39.314573097991939</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="17">
+        <v>43.1157395401179</v>
+      </c>
+      <c r="N9" s="26">
+        <v>54.503236828338622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1024,11 +1099,17 @@
       <c r="K10" s="8">
         <v>13.939955502324423</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="8">
         <v>16.079057344233192</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="17">
+        <v>16.341833890991211</v>
+      </c>
+      <c r="N10" s="26">
+        <v>17.184992267862956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1062,11 +1143,17 @@
       <c r="K11" s="8">
         <v>13.270251420533798</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="8">
         <v>17.932722643976337</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="17">
+        <v>15.764510435317993</v>
+      </c>
+      <c r="N11" s="26">
+        <v>20.951336141139983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1100,11 +1187,17 @@
       <c r="K12" s="7">
         <v>18.378353816646179</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="7">
         <v>20.768092498922599</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="16">
+        <v>25.763571491216958</v>
+      </c>
+      <c r="N12" s="25">
+        <v>27.550148199624722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1138,11 +1231,17 @@
       <c r="K13" s="7">
         <v>14.125766495834352</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="7">
         <v>22.044539649912522</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="16">
+        <v>20.259661162984212</v>
+      </c>
+      <c r="N13" s="25">
+        <v>24.220358852793375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -1176,11 +1275,17 @@
       <c r="K14" s="8">
         <v>1.9871584676106769E-2</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="8">
         <v>3.6904735717773436</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="17">
+        <v>2.6162621215820314</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1.9685888161214191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1214,11 +1319,17 @@
       <c r="K15" s="8">
         <v>14.105894911158245</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="8">
         <v>18.354066078135169</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="17">
+        <v>17.643399041402184</v>
+      </c>
+      <c r="N15" s="26">
+        <v>22.251770036671957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1252,11 +1363,17 @@
       <c r="K16" s="7">
         <v>151.52144504870108</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="7">
         <v>174.53662461987011</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="16">
+        <v>197.86378063009846</v>
+      </c>
+      <c r="N16" s="25">
+        <v>233.80781473262343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1290,11 +1407,17 @@
       <c r="K17" s="9">
         <v>169.89979886534729</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="9">
         <v>195.30471711879272</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="18">
+        <v>223.62735212131543</v>
+      </c>
+      <c r="N17" s="27">
+        <v>261.3579629322482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1305,7 +1428,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1315,24 +1438,27 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>2011</v>
@@ -1367,8 +1493,14 @@
       <c r="L21" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1402,11 +1534,17 @@
       <c r="K22" s="7">
         <v>1023.8339262012217</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="7">
         <v>1179.2893251744986</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="19">
+        <v>1515.1635762814719</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1679.7090055319379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
@@ -1440,11 +1578,17 @@
       <c r="K23" s="7">
         <v>903.04112229808129</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="7">
         <v>1037.93203150201</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="16">
+        <v>1323.2155587056911</v>
+      </c>
+      <c r="N23" s="25">
+        <v>1484.5639452860564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
@@ -1478,11 +1622,17 @@
       <c r="K24" s="8">
         <v>342.07364506866867</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="8">
         <v>379.42448108953153</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="17">
+        <v>503.2890731004756</v>
+      </c>
+      <c r="N24" s="26">
+        <v>569.58845953261755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
@@ -1516,11 +1666,17 @@
       <c r="K25" s="8">
         <v>94.153248964751228</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="8">
         <v>102.51125283379842</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="17">
+        <v>185.63409800777981</v>
+      </c>
+      <c r="N25" s="26">
+        <v>187.10311132703148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1554,11 +1710,17 @@
       <c r="K26" s="8">
         <v>43.601541131121493</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="8">
         <v>51.069225553135773</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="17">
+        <v>67.847077101203951</v>
+      </c>
+      <c r="N26" s="26">
+        <v>67.988870891062462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>14</v>
       </c>
@@ -1592,11 +1754,17 @@
       <c r="K27" s="8">
         <v>3.1471367696850447</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="8">
         <v>5.8338198322339405</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="17">
+        <v>6.0133113457225713</v>
+      </c>
+      <c r="N27" s="26">
+        <v>3.6927125311962712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>3</v>
       </c>
@@ -1630,11 +1798,17 @@
       <c r="K28" s="8">
         <v>241.22487606909382</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="8">
         <v>267.59326381610026</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="17">
+        <v>321.22800729940263</v>
+      </c>
+      <c r="N28" s="26">
+        <v>386.06098803514084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>4</v>
       </c>
@@ -1668,11 +1842,17 @@
       <c r="K29" s="8">
         <v>91.621171744209136</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="8">
         <v>109.44154024272905</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="17">
+        <v>121.75263122963462</v>
+      </c>
+      <c r="N29" s="26">
+        <v>121.7258915319665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>5</v>
       </c>
@@ -1706,11 +1886,17 @@
       <c r="K30" s="8">
         <v>87.219502550551709</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="8">
         <v>122.05844813448113</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="17">
+        <v>117.45136062147179</v>
+      </c>
+      <c r="N30" s="26">
+        <v>148.40391143704136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -1744,11 +1930,17 @@
       <c r="K31" s="7">
         <v>120.79280390314068</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="7">
         <v>141.35729367248862</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="16">
+        <v>191.94801757578045</v>
+      </c>
+      <c r="N31" s="25">
+        <v>195.14506024588127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>11</v>
       </c>
@@ -1782,11 +1974,17 @@
       <c r="K32" s="7">
         <v>92.842425351905135</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="7">
         <v>150.04538646624206</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="16">
+        <v>150.94187536528383</v>
+      </c>
+      <c r="N32" s="25">
+        <v>171.55927268549544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -1820,11 +2018,17 @@
       <c r="K33" s="8">
         <v>0.1306071509436014</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="8">
         <v>25.119079015241841</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="17">
+        <v>19.49210837742261</v>
+      </c>
+      <c r="N33" s="26">
+        <v>13.944040530664564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -1858,11 +2062,17 @@
       <c r="K34" s="8">
         <v>92.711818200961545</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="8">
         <v>124.9263074510002</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="17">
+        <v>131.44976698786127</v>
+      </c>
+      <c r="N34" s="26">
+        <v>157.61523215483089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>12</v>
       </c>
@@ -1896,11 +2106,17 @@
       <c r="K35" s="7">
         <v>995.88354764998633</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="7">
         <v>1187.977417968252</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="16">
+        <v>1474.1574340709749</v>
+      </c>
+      <c r="N35" s="25">
+        <v>1656.1232179715516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>13</v>
       </c>
@@ -1934,11 +2150,17 @@
       <c r="K36" s="9">
         <v>1116.6763515531272</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="9">
         <v>1329.334711640741</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="18">
+        <v>1666.1054516467552</v>
+      </c>
+      <c r="N36" s="27">
+        <v>1851.2682782174329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1949,7 +2171,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1959,24 +2181,27 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="11">
         <v>2011</v>
@@ -2011,8 +2236,14 @@
       <c r="L40" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
@@ -2046,11 +2277,17 @@
       <c r="K41" s="7">
         <v>319.8757085097285</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="7">
         <v>359.85439887267353</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="16">
+        <v>435.80534321986534</v>
+      </c>
+      <c r="N41" s="25">
+        <v>523.86824504742424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>9</v>
       </c>
@@ -2084,11 +2321,17 @@
       <c r="K42" s="7">
         <v>282.13649832868219</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="7">
         <v>316.71990858696313</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="16">
+        <v>380.59548140066465</v>
+      </c>
+      <c r="N42" s="25">
+        <v>463.00633390448246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
@@ -2122,11 +2365,17 @@
       <c r="K43" s="8">
         <v>106.87382668089128</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="8">
         <v>115.77953403406417</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="17">
+        <v>144.76065203445376</v>
+      </c>
+      <c r="N43" s="26">
+        <v>177.64345235508389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>1</v>
       </c>
@@ -2160,11 +2409,17 @@
       <c r="K44" s="8">
         <v>29.416232897105104</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44" s="8">
         <v>31.280809957923363</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="17">
+        <v>53.393793952027885</v>
+      </c>
+      <c r="N44" s="26">
+        <v>58.353785239583345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
@@ -2198,11 +2453,17 @@
       <c r="K45" s="8">
         <v>13.622398618086457</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="8">
         <v>15.583525662455518</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="17">
+        <v>19.514803012306562</v>
+      </c>
+      <c r="N45" s="26">
+        <v>21.204393355727348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>14</v>
       </c>
@@ -2236,11 +2497,17 @@
       <c r="K46" s="8">
         <v>0.98325771222995106</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="8">
         <v>1.7801617330415413</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="17">
+        <v>1.7296041535938429</v>
+      </c>
+      <c r="N46" s="26">
+        <v>1.1516845041679094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>3</v>
       </c>
@@ -2274,11 +2541,17 @@
       <c r="K47" s="8">
         <v>75.365717200904342</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="8">
         <v>81.654782280566181</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="17">
+        <v>92.3945666094491</v>
+      </c>
+      <c r="N47" s="26">
+        <v>120.40483894363355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -2312,11 +2585,17 @@
       <c r="K48" s="8">
         <v>28.625137804244247</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="8">
         <v>33.395553436320043</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="17">
+        <v>35.01961641077331</v>
+      </c>
+      <c r="N48" s="26">
+        <v>37.963914561195047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>5</v>
       </c>
@@ -2350,11 +2629,17 @@
       <c r="K49" s="8">
         <v>27.249927415220771</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="8">
         <v>37.24554148259233</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="17">
+        <v>33.782445228060233</v>
+      </c>
+      <c r="N49" s="26">
+        <v>46.284264945091408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>10</v>
       </c>
@@ -2388,11 +2673,17 @@
       <c r="K50" s="7">
         <v>37.73921018104636</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="7">
         <v>43.134490285710392</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="16">
+        <v>55.209861819200519</v>
+      </c>
+      <c r="N50" s="25">
+        <v>60.861911142941651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>11</v>
       </c>
@@ -2426,11 +2717,17 @@
       <c r="K51" s="7">
         <v>29.006693204035756</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="7">
         <v>45.785619523383708</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="16">
+        <v>43.415296427108331</v>
+      </c>
+      <c r="N51" s="25">
+        <v>53.505967288007199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>6</v>
       </c>
@@ -2464,11 +2761,17 @@
       <c r="K52" s="8">
         <v>4.080549967662489E-2</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="8">
         <v>7.6649647260459295</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="17">
+        <v>5.6065002581103505</v>
+      </c>
+      <c r="N52" s="26">
+        <v>4.3488723449190951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>7</v>
       </c>
@@ -2502,11 +2805,17 @@
       <c r="K53" s="8">
         <v>28.96588770435913</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="8">
         <v>38.120654797337764</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="17">
+        <v>37.808796168997986</v>
+      </c>
+      <c r="N53" s="26">
+        <v>49.157094943088104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>12</v>
       </c>
@@ -2540,11 +2849,17 @@
       <c r="K54" s="7">
         <v>311.14319153271794</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="7">
         <v>362.5055281103468</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="16">
+        <v>424.0107778277731</v>
+      </c>
+      <c r="N54" s="25">
+        <v>516.51230119248976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>13</v>
       </c>
@@ -2578,66 +2893,78 @@
       <c r="K55" s="9">
         <v>348.88240171376424</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="9">
         <v>405.6400183960572</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="M55" s="18">
+        <v>479.22063964697355</v>
+      </c>
+      <c r="N55" s="27">
+        <v>577.37421233543137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="18" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="19" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
